--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,57 +46,60 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shortage</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -109,226 +112,232 @@
     <t>negative</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>hope</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>important</t>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>want</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>social</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>go</t>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>toilet</t>
   </si>
   <si>
     <t>prices</t>
@@ -689,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -776,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -800,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,16 +838,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -858,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7191780821917808</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6896551724137931</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -926,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -950,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -958,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6333333333333333</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -976,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1008,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5897435897435898</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1026,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1058,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5833333333333334</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1076,31 +1085,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L9">
-        <v>31</v>
-      </c>
-      <c r="M9">
-        <v>31</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1108,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5789473684210527</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1126,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1150,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1158,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5641025641025641</v>
+        <v>0.4446601941747573</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1173,22 +1182,22 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8482142857142857</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1208,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4705882352941176</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1226,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0.8297872340425532</v>
@@ -1258,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4429530201342282</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1276,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.437984496124031</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C14">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1326,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.8166666666666667</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1350,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1358,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4133333333333333</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1376,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K15">
         <v>0.8125</v>
@@ -1408,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4067796610169492</v>
+        <v>0.375</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1426,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.8103448275862069</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1450,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1458,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3777777777777778</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1476,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1500,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1508,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.328042328042328</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1526,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1550,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1558,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3246753246753247</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1576,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7676056338028169</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L19">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="M19">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1600,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1608,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.253968253968254</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C20">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1626,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1650,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1658,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2375</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1676,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7619047619047619</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1700,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1708,37 +1717,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1666666666666667</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>310</v>
+        <v>193</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7547169811320755</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1750,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1758,37 +1767,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01090442591404747</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E23">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3084</v>
+        <v>314</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="L23">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1800,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1808,37 +1817,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008730691739422432</v>
+        <v>0.007712082262210797</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="E24">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="F24">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2952</v>
+        <v>3088</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1850,21 +1859,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.00740990232401482</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>160</v>
+      </c>
+      <c r="E25">
+        <v>0.86</v>
+      </c>
+      <c r="F25">
+        <v>0.14</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2947</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1876,12 +1909,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>0.6785714285714286</v>
@@ -1907,16 +1940,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1954,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.6579634464751958</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1980,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.660574412532637</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L30">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2006,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.6176470588235294</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2032,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2058,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5852941176470589</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2084,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.5757575757575758</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2115,16 +2148,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.575</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2136,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2162,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.5661016949152542</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L37">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M37">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2188,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.550561797752809</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L38">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2214,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.5104602510460251</v>
+        <v>0.55</v>
       </c>
       <c r="L39">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2240,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2266,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.4923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2292,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.4857142857142857</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2318,21 +2351,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.4657534246575342</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2344,21 +2377,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2370,47 +2403,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.4358974358974359</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.4098360655737705</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2422,12 +2455,12 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K47">
         <v>0.4042553191489361</v>
@@ -2453,16 +2486,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.3728813559322034</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2474,21 +2507,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.3389830508474576</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2500,21 +2533,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.2916666666666667</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2526,21 +2559,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.2283464566929134</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2552,56 +2585,56 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.2105263157894737</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>75</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.2076923076923077</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M53">
         <v>28</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>103</v>
@@ -2609,42 +2642,42 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.1798561151079137</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L54">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>342</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.1635220125786163</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2656,47 +2689,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.1572327044025157</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.1533742331288344</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2713,68 +2746,68 @@
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.1495327102803738</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>182</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.1466346153846154</v>
+        <v>0.1586206896551724</v>
       </c>
       <c r="L59">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>355</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.1449275362318841</v>
+        <v>0.1569767441860465</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2786,125 +2819,125 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.1395348837209302</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.1220930232558139</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K63">
-        <v>0.1111111111111111</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L63">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N63">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>288</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>0.1092896174863388</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N64">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>163</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K65">
-        <v>0.1085011185682327</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L65">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2916,47 +2949,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>797</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K66">
-        <v>0.1022727272727273</v>
+        <v>0.122060470324748</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N66">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>237</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K67">
-        <v>0.1</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2968,319 +3001,371 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>207</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K68">
-        <v>0.08766233766233766</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="L68">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>281</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K69">
-        <v>0.08458864426419467</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="L69">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="M69">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>790</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K70">
-        <v>0.08213096559378469</v>
+        <v>0.08794788273615635</v>
       </c>
       <c r="L70">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>827</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K71">
-        <v>0.08094117647058824</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="L71">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="M71">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="N71">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O71">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1953</v>
+        <v>790</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K72">
-        <v>0.07894736842105263</v>
+        <v>0.0865533230293663</v>
       </c>
       <c r="L72">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M72">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K73">
-        <v>0.07010309278350516</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="L73">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>451</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K74">
-        <v>0.05882352941176471</v>
+        <v>0.08546059933407325</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="N74">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>336</v>
+        <v>824</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K75">
-        <v>0.04261954261954262</v>
+        <v>0.07011764705882353</v>
       </c>
       <c r="L75">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="M75">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="N75">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="O75">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>921</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K76">
-        <v>0.04186952288218111</v>
+        <v>0.04473257698541329</v>
       </c>
       <c r="L76">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M76">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N76">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="O76">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>2952</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K77">
-        <v>0.03730017761989343</v>
+        <v>0.04460966542750929</v>
       </c>
       <c r="L77">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N77">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="O77">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>542</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K78">
+        <v>0.04262877442273535</v>
+      </c>
+      <c r="L78">
+        <v>24</v>
+      </c>
+      <c r="M78">
         <v>28</v>
       </c>
-      <c r="K78">
-        <v>0.02620776760341017</v>
-      </c>
-      <c r="L78">
-        <v>83</v>
-      </c>
-      <c r="M78">
-        <v>117</v>
-      </c>
       <c r="N78">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="O78">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>3084</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K79">
-        <v>0.02430555555555556</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="L79">
+        <v>38</v>
+      </c>
+      <c r="M79">
+        <v>46</v>
+      </c>
+      <c r="N79">
+        <v>0.83</v>
+      </c>
+      <c r="O79">
+        <v>0.17</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80">
+        <v>0.02801384954359459</v>
+      </c>
+      <c r="L80">
+        <v>89</v>
+      </c>
+      <c r="M80">
+        <v>113</v>
+      </c>
+      <c r="N80">
+        <v>0.79</v>
+      </c>
+      <c r="O80">
+        <v>0.21</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K81">
+        <v>0.0198961937716263</v>
+      </c>
+      <c r="L81">
+        <v>23</v>
+      </c>
+      <c r="M81">
         <v>28</v>
       </c>
-      <c r="M79">
-        <v>37</v>
-      </c>
-      <c r="N79">
-        <v>0.76</v>
-      </c>
-      <c r="O79">
-        <v>0.24</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>1124</v>
+      <c r="N81">
+        <v>0.82</v>
+      </c>
+      <c r="O81">
+        <v>0.18</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
